--- a/WEB-INF/efw/storage/templates/print_templates.xlsx
+++ b/WEB-INF/efw/storage/templates/print_templates.xlsx
@@ -128,6 +128,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -201,14 +202,14 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -258,7 +259,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="66674"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -915,7 +916,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="66674"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -1566,8 +1567,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4095750" y="66674"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:off x="4057650" y="66674"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -2224,7 +2225,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="66674"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -2875,8 +2876,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4095750" y="66674"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:off x="4057650" y="66674"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -3528,7 +3529,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="3471861"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -4185,7 +4186,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="66674"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -4836,8 +4837,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4095750" y="66674"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:off x="4057650" y="66674"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -5489,7 +5490,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="3471861"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -6140,8 +6141,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4095750" y="3471861"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:off x="4057650" y="3471861"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -6798,7 +6799,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="66674"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -7449,8 +7450,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4095750" y="66674"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:off x="4057650" y="66674"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -8102,7 +8103,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="3471861"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -8754,7 +8755,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="6877049"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -9405,8 +9406,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4095750" y="3471861"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:off x="4057650" y="3471861"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -10063,7 +10064,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="66674"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -10714,8 +10715,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4095750" y="66674"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:off x="4057650" y="66674"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -11367,7 +11368,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="3471861"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -12019,7 +12020,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="6877049"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -12670,8 +12671,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4095750" y="3471861"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:off x="4057650" y="3471861"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -13322,8 +13323,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4095750" y="6877049"/>
-          <a:ext cx="3600000" cy="3225801"/>
+          <a:off x="4057650" y="6877049"/>
+          <a:ext cx="3580950" cy="3225801"/>
           <a:chOff x="152400" y="66674"/>
           <a:chExt cx="3600000" cy="3225801"/>
         </a:xfrm>
@@ -14250,12 +14251,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="2.875" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="2.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.875" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="2.875" style="2" collapsed="1"/>
     <col min="4" max="6" width="2.875" style="2" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="2.875" style="2" collapsed="1"/>
     <col min="8" max="15" width="2.875" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="19" width="2.875" style="2" collapsed="1"/>
+    <col min="16" max="17" width="2.875" style="2" collapsed="1"/>
+    <col min="18" max="19" width="2.625" style="2" customWidth="1" collapsed="1"/>
     <col min="20" max="35" width="2.875" style="2" customWidth="1" collapsed="1"/>
     <col min="36" max="36" width="2.875" style="2" customWidth="1"/>
     <col min="37" max="37" width="2.875" style="2" collapsed="1"/>
@@ -14293,15 +14296,15 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
       <c r="AB2" s="23"/>
       <c r="AL2" s="19"/>
       <c r="AM2" s="19"/>
@@ -14789,15 +14792,15 @@
     </row>
     <row r="22" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E22" s="1"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
     </row>
     <row r="23" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E23" s="16"/>
@@ -15071,67 +15074,67 @@
     </row>
     <row r="38" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="7"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
       <c r="V38" s="7"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="27"/>
-      <c r="AH38" s="27"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="25"/>
     </row>
     <row r="39" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="27"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
     </row>
     <row r="42" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="10"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
       <c r="V42" s="10"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
     </row>
     <row r="43" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="10"/>
@@ -15443,6 +15446,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="E6:P7"/>
+    <mergeCell ref="W6:AH7"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="X22:AA22"/>
     <mergeCell ref="E46:P47"/>
     <mergeCell ref="W46:AH47"/>
     <mergeCell ref="E26:P27"/>
@@ -15451,15 +15460,9 @@
     <mergeCell ref="X38:AH39"/>
     <mergeCell ref="F42:I42"/>
     <mergeCell ref="X42:AA42"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="E6:P7"/>
-    <mergeCell ref="W6:AH7"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="X22:AA22"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.15748031496062992" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -15473,12 +15476,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="2.875" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="2.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.875" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="2.875" style="2" collapsed="1"/>
     <col min="4" max="6" width="2.875" style="2" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="2.875" style="2" collapsed="1"/>
     <col min="8" max="15" width="2.875" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="19" width="2.875" style="2" collapsed="1"/>
+    <col min="16" max="17" width="2.875" style="2" collapsed="1"/>
+    <col min="18" max="19" width="2.625" style="2" customWidth="1" collapsed="1"/>
     <col min="20" max="35" width="2.875" style="2" customWidth="1" collapsed="1"/>
     <col min="36" max="36" width="2.875" style="2" customWidth="1"/>
     <col min="37" max="37" width="2.875" style="2" collapsed="1"/>
@@ -15516,17 +15521,17 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="W2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
       <c r="AB2" s="23"/>
       <c r="AL2" s="19"/>
       <c r="AM2" s="19"/>
@@ -16014,15 +16019,15 @@
     </row>
     <row r="22" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E22" s="1"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
     </row>
     <row r="23" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E23" s="16"/>
@@ -16296,67 +16301,67 @@
     </row>
     <row r="38" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="7"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
       <c r="V38" s="7"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="27"/>
-      <c r="AH38" s="27"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="25"/>
     </row>
     <row r="39" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="27"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
     </row>
     <row r="42" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="10"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
       <c r="V42" s="10"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
     </row>
     <row r="43" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="10"/>
@@ -16668,6 +16673,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="E6:P7"/>
+    <mergeCell ref="W6:AH7"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="X22:AA22"/>
     <mergeCell ref="E46:P47"/>
     <mergeCell ref="W46:AH47"/>
     <mergeCell ref="E26:P27"/>
@@ -16676,15 +16687,9 @@
     <mergeCell ref="X38:AH39"/>
     <mergeCell ref="F42:I42"/>
     <mergeCell ref="X42:AA42"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="E6:P7"/>
-    <mergeCell ref="W6:AH7"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="X22:AA22"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.15748031496062992" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -16698,12 +16703,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="2.875" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="2.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.875" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="2.875" style="2" collapsed="1"/>
     <col min="4" max="6" width="2.875" style="2" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="2.875" style="2" collapsed="1"/>
     <col min="8" max="15" width="2.875" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="19" width="2.875" style="2" collapsed="1"/>
+    <col min="16" max="17" width="2.875" style="2" collapsed="1"/>
+    <col min="18" max="19" width="2.625" style="2" customWidth="1" collapsed="1"/>
     <col min="20" max="35" width="2.875" style="2" customWidth="1" collapsed="1"/>
     <col min="36" max="36" width="2.875" style="2" customWidth="1"/>
     <col min="37" max="37" width="2.875" style="2" collapsed="1"/>
@@ -16741,17 +16748,17 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="W2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
       <c r="AB2" s="23"/>
       <c r="AL2" s="19"/>
       <c r="AM2" s="19"/>
@@ -17241,15 +17248,15 @@
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
     </row>
     <row r="23" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E23" s="16"/>
@@ -17523,67 +17530,67 @@
     </row>
     <row r="38" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="7"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
       <c r="V38" s="7"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="27"/>
-      <c r="AH38" s="27"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="25"/>
     </row>
     <row r="39" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="27"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
     </row>
     <row r="42" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="10"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
       <c r="V42" s="10"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
     </row>
     <row r="43" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="10"/>
@@ -17895,6 +17902,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="E6:P7"/>
+    <mergeCell ref="W6:AH7"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="X22:AA22"/>
     <mergeCell ref="E46:P47"/>
     <mergeCell ref="W46:AH47"/>
     <mergeCell ref="E26:P27"/>
@@ -17903,15 +17916,9 @@
     <mergeCell ref="X38:AH39"/>
     <mergeCell ref="F42:I42"/>
     <mergeCell ref="X42:AA42"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="E6:P7"/>
-    <mergeCell ref="W6:AH7"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="X22:AA22"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.15748031496062992" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -17925,12 +17932,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="2.875" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="2.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.875" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="2.875" style="2" collapsed="1"/>
     <col min="4" max="6" width="2.875" style="2" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="2.875" style="2" collapsed="1"/>
     <col min="8" max="15" width="2.875" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="19" width="2.875" style="2" collapsed="1"/>
+    <col min="16" max="17" width="2.875" style="2" collapsed="1"/>
+    <col min="18" max="19" width="2.625" style="2" customWidth="1" collapsed="1"/>
     <col min="20" max="35" width="2.875" style="2" customWidth="1" collapsed="1"/>
     <col min="36" max="36" width="2.875" style="2" customWidth="1"/>
     <col min="37" max="37" width="2.875" style="2" collapsed="1"/>
@@ -17968,17 +17977,17 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="W2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
       <c r="AB2" s="23"/>
       <c r="AL2" s="19"/>
       <c r="AM2" s="19"/>
@@ -18468,17 +18477,17 @@
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="W22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
     </row>
     <row r="23" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E23" s="16"/>
@@ -18752,67 +18761,67 @@
     </row>
     <row r="38" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="7"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
       <c r="V38" s="7"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="27"/>
-      <c r="AH38" s="27"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="25"/>
     </row>
     <row r="39" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="27"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
     </row>
     <row r="42" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="10"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
       <c r="V42" s="10"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
     </row>
     <row r="43" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="10"/>
@@ -19124,6 +19133,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="E6:P7"/>
+    <mergeCell ref="W6:AH7"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="X22:AA22"/>
     <mergeCell ref="E46:P47"/>
     <mergeCell ref="W46:AH47"/>
     <mergeCell ref="E26:P27"/>
@@ -19132,15 +19147,9 @@
     <mergeCell ref="X38:AH39"/>
     <mergeCell ref="F42:I42"/>
     <mergeCell ref="X42:AA42"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="E6:P7"/>
-    <mergeCell ref="W6:AH7"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="X22:AA22"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.15748031496062992" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -19154,12 +19163,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="2.875" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="2.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.875" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="2.875" style="2" collapsed="1"/>
     <col min="4" max="6" width="2.875" style="2" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="2.875" style="2" collapsed="1"/>
     <col min="8" max="15" width="2.875" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="19" width="2.875" style="2" collapsed="1"/>
+    <col min="16" max="17" width="2.875" style="2" collapsed="1"/>
+    <col min="18" max="19" width="2.625" style="2" customWidth="1" collapsed="1"/>
     <col min="20" max="35" width="2.875" style="2" customWidth="1" collapsed="1"/>
     <col min="36" max="36" width="2.875" style="2" customWidth="1"/>
     <col min="37" max="37" width="2.875" style="2" collapsed="1"/>
@@ -19197,17 +19208,17 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="W2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
       <c r="AB2" s="23"/>
       <c r="AL2" s="19"/>
       <c r="AM2" s="19"/>
@@ -19697,17 +19708,17 @@
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="W22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
     </row>
     <row r="23" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E23" s="16"/>
@@ -19981,69 +19992,69 @@
     </row>
     <row r="38" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="7"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
       <c r="V38" s="7"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="27"/>
-      <c r="AH38" s="27"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="25"/>
     </row>
     <row r="39" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="27"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
     </row>
     <row r="42" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="10"/>
       <c r="E42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
       <c r="V42" s="10"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
     </row>
     <row r="43" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="10"/>
@@ -20355,12 +20366,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="E6:P7"/>
-    <mergeCell ref="W6:AH7"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="X22:AA22"/>
     <mergeCell ref="E46:P47"/>
     <mergeCell ref="W46:AH47"/>
     <mergeCell ref="E26:P27"/>
@@ -20369,9 +20374,15 @@
     <mergeCell ref="X38:AH39"/>
     <mergeCell ref="F42:I42"/>
     <mergeCell ref="X42:AA42"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="E6:P7"/>
+    <mergeCell ref="W6:AH7"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="X22:AA22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.15748031496062992" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -20385,12 +20396,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="2.875" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="2.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.875" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="2.875" style="2" collapsed="1"/>
     <col min="4" max="6" width="2.875" style="2" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="2.875" style="2" collapsed="1"/>
     <col min="8" max="15" width="2.875" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="19" width="2.875" style="2" collapsed="1"/>
+    <col min="16" max="17" width="2.875" style="2" collapsed="1"/>
+    <col min="18" max="19" width="2.625" style="2" customWidth="1" collapsed="1"/>
     <col min="20" max="35" width="2.875" style="2" customWidth="1" collapsed="1"/>
     <col min="36" max="36" width="2.875" style="2" customWidth="1"/>
     <col min="37" max="37" width="2.875" style="2" collapsed="1"/>
@@ -20428,17 +20441,17 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="W2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
       <c r="AB2" s="23"/>
       <c r="AL2" s="19"/>
       <c r="AM2" s="19"/>
@@ -20926,17 +20939,17 @@
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="W22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
     </row>
     <row r="23" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E23" s="16"/>
@@ -21208,71 +21221,71 @@
     </row>
     <row r="38" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="7"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
       <c r="V38" s="7"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="27"/>
-      <c r="AH38" s="27"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="25"/>
     </row>
     <row r="39" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="27"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
     </row>
     <row r="42" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="10"/>
       <c r="E42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
       <c r="V42" s="10"/>
       <c r="W42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
     </row>
     <row r="43" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="10"/>
@@ -21588,12 +21601,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="E6:P7"/>
-    <mergeCell ref="W6:AH7"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="X22:AA22"/>
     <mergeCell ref="E46:P47"/>
     <mergeCell ref="W46:AH47"/>
     <mergeCell ref="E26:P27"/>
@@ -21602,9 +21609,15 @@
     <mergeCell ref="X38:AH39"/>
     <mergeCell ref="F42:I42"/>
     <mergeCell ref="X42:AA42"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="E6:P7"/>
+    <mergeCell ref="W6:AH7"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="X22:AA22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.15748031496062992" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/WEB-INF/efw/storage/templates/print_templates.xlsx
+++ b/WEB-INF/efw/storage/templates/print_templates.xlsx
@@ -12,39 +12,67 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11550" tabRatio="746"/>
   </bookViews>
   <sheets>
-    <sheet name="TEMP6_01" sheetId="134" r:id="rId1"/>
-    <sheet name="TEMP6_02" sheetId="133" r:id="rId2"/>
-    <sheet name="TEMP6_03" sheetId="132" r:id="rId3"/>
-    <sheet name="TEMP6_04" sheetId="131" r:id="rId4"/>
-    <sheet name="TEMP6_05" sheetId="103" r:id="rId5"/>
-    <sheet name="TEMP6_06" sheetId="102" r:id="rId6"/>
+    <sheet name="Product" sheetId="135" r:id="rId1"/>
+    <sheet name="TEMP6_01" sheetId="134" r:id="rId2"/>
+    <sheet name="TEMP6_02" sheetId="133" r:id="rId3"/>
+    <sheet name="TEMP6_03" sheetId="132" r:id="rId4"/>
+    <sheet name="TEMP6_04" sheetId="131" r:id="rId5"/>
+    <sheet name="TEMP6_05" sheetId="103" r:id="rId6"/>
+    <sheet name="TEMP6_06" sheetId="102" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TEMP6_01!$A$1:$AJ$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">TEMP6_02!$A$1:$AJ$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">TEMP6_03!$A$1:$AJ$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">TEMP6_04!$A$1:$AJ$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">TEMP6_05!$A$1:$AJ$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">TEMP6_06!$A$1:$AJ$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">TEMP6_01!$A$1:$AJ$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">TEMP6_02!$A$1:$AJ$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">TEMP6_03!$A$1:$AJ$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">TEMP6_04!$A$1:$AJ$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">TEMP6_05!$A$1:$AJ$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">TEMP6_06!$A$1:$AJ$60</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="11">
   <si>
     <t>〒</t>
   </si>
   <si>
     <t/>
   </si>
+  <si>
+    <t>商品管理番号</t>
+  </si>
+  <si>
+    <t>商品種別</t>
+  </si>
+  <si>
+    <t>SKU番号</t>
+  </si>
+  <si>
+    <t>ASIN番号</t>
+  </si>
+  <si>
+    <t>ラベル番号</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>色</t>
+  </si>
+  <si>
+    <t>サイズ</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,16 +160,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF22B14C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,12 +191,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -199,6 +256,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -210,6 +270,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14245,11 +14308,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="87.5" style="29" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15">
+      <c r="A1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1"/>
+    <row r="3" spans="1:9" ht="30" customHeight="1"/>
+    <row r="4" spans="1:9" ht="30" customHeight="1"/>
+    <row r="5" spans="1:9" ht="30" customHeight="1"/>
+    <row r="6" spans="1:9" ht="30" customHeight="1"/>
+    <row r="7" spans="1:9" ht="30" customHeight="1"/>
+    <row r="8" spans="1:9" ht="30" customHeight="1"/>
+    <row r="9" spans="1:9" ht="30" customHeight="1"/>
+    <row r="10" spans="1:9" ht="30" customHeight="1"/>
+    <row r="11" spans="1:9" ht="30" customHeight="1"/>
+    <row r="12" spans="1:9" ht="30" customHeight="1"/>
+    <row r="13" spans="1:9" ht="30" customHeight="1"/>
+    <row r="14" spans="1:9" ht="30" customHeight="1"/>
+    <row r="15" spans="1:9" ht="30" customHeight="1"/>
+    <row r="16" spans="1:9" ht="30" customHeight="1"/>
+    <row r="17" ht="30" customHeight="1"/>
+    <row r="18" ht="30" customHeight="1"/>
+    <row r="19" ht="30" customHeight="1"/>
+    <row r="20" ht="30" customHeight="1"/>
+    <row r="21" ht="30" customHeight="1"/>
+    <row r="22" ht="30" customHeight="1"/>
+    <row r="23" ht="30" customHeight="1"/>
+    <row r="24" ht="30" customHeight="1"/>
+    <row r="25" ht="30" customHeight="1"/>
+    <row r="26" ht="30" customHeight="1"/>
+    <row r="27" ht="30" customHeight="1"/>
+    <row r="28" ht="30" customHeight="1"/>
+    <row r="29" ht="30" customHeight="1"/>
+    <row r="30" ht="30" customHeight="1"/>
+    <row r="31" ht="30" customHeight="1"/>
+    <row r="32" ht="30" customHeight="1"/>
+    <row r="33" ht="30" customHeight="1"/>
+    <row r="34" ht="30" customHeight="1"/>
+    <row r="35" ht="30" customHeight="1"/>
+    <row r="36" ht="30" customHeight="1"/>
+    <row r="37" ht="30" customHeight="1"/>
+    <row r="38" ht="30" customHeight="1"/>
+    <row r="39" ht="30" customHeight="1"/>
+    <row r="40" ht="30" customHeight="1"/>
+    <row r="41" ht="30" customHeight="1"/>
+    <row r="42" ht="30" customHeight="1"/>
+    <row r="43" ht="30" customHeight="1"/>
+    <row r="44" ht="30" customHeight="1"/>
+    <row r="45" ht="30" customHeight="1"/>
+    <row r="46" ht="30" customHeight="1"/>
+    <row r="47" ht="30" customHeight="1"/>
+    <row r="48" ht="30" customHeight="1"/>
+    <row r="49" ht="30" customHeight="1"/>
+    <row r="50" ht="30" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BD60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.625" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="2.875" style="2" customWidth="1" collapsed="1"/>
@@ -14272,7 +14445,7 @@
     <col min="57" max="16384" width="2.875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:55" ht="13.5" customHeight="1">
       <c r="AL1" s="19"/>
       <c r="AM1" s="19"/>
       <c r="AN1" s="19"/>
@@ -14292,19 +14465,19 @@
       <c r="BB1" s="18"/>
       <c r="BC1" s="18"/>
     </row>
-    <row r="2" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:55" ht="13.5" customHeight="1">
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
       <c r="AB2" s="23"/>
       <c r="AL2" s="19"/>
       <c r="AM2" s="19"/>
@@ -14325,7 +14498,7 @@
       <c r="BB2" s="18"/>
       <c r="BC2" s="18"/>
     </row>
-    <row r="3" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:55" ht="13.5" customHeight="1">
       <c r="C3" s="7"/>
       <c r="E3" s="16"/>
       <c r="F3" s="15"/>
@@ -14365,7 +14538,7 @@
       <c r="BB3" s="18"/>
       <c r="BC3" s="18"/>
     </row>
-    <row r="4" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:55" ht="13.5" customHeight="1">
       <c r="C4" s="7"/>
       <c r="E4" s="12" t="s">
         <v>1</v>
@@ -14397,7 +14570,7 @@
       <c r="BB4" s="18"/>
       <c r="BC4" s="18"/>
     </row>
-    <row r="5" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:55" ht="13.5" customHeight="1">
       <c r="C5" s="7"/>
       <c r="E5" s="12" t="s">
         <v>1</v>
@@ -14447,33 +14620,33 @@
       <c r="BB5" s="18"/>
       <c r="BC5" s="18"/>
     </row>
-    <row r="6" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:55" ht="13.5" customHeight="1">
       <c r="C6" s="7"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
       <c r="AL6" s="19"/>
       <c r="AM6" s="19"/>
       <c r="AN6" s="19"/>
@@ -14493,33 +14666,33 @@
       <c r="BB6" s="18"/>
       <c r="BC6" s="18"/>
     </row>
-    <row r="7" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:55" ht="13.5" customHeight="1">
       <c r="C7" s="7"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
       <c r="AL7" s="19"/>
       <c r="AM7" s="19"/>
       <c r="AN7" s="19"/>
@@ -14539,7 +14712,7 @@
       <c r="BB7" s="18"/>
       <c r="BC7" s="18"/>
     </row>
-    <row r="8" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:55" ht="13.5" customHeight="1">
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
@@ -14581,7 +14754,7 @@
       <c r="BB8" s="18"/>
       <c r="BC8" s="18"/>
     </row>
-    <row r="9" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:55" ht="13.5" customHeight="1">
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -14629,7 +14802,7 @@
       <c r="BB9" s="18"/>
       <c r="BC9" s="18"/>
     </row>
-    <row r="10" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:55" ht="13.5" customHeight="1">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -14683,7 +14856,7 @@
       <c r="BB10" s="18"/>
       <c r="BC10" s="18"/>
     </row>
-    <row r="11" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:55" ht="13.5" customHeight="1">
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -14736,7 +14909,7 @@
       <c r="BB11" s="18"/>
       <c r="BC11" s="18"/>
     </row>
-    <row r="12" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:55" ht="13.5" customHeight="1">
       <c r="AL12" s="18"/>
       <c r="AM12" s="18"/>
       <c r="AN12" s="18"/>
@@ -14756,7 +14929,7 @@
       <c r="BB12" s="18"/>
       <c r="BC12" s="18"/>
     </row>
-    <row r="13" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:55" ht="13.5" customHeight="1">
       <c r="AL13" s="18"/>
       <c r="AM13" s="18"/>
       <c r="AN13" s="18"/>
@@ -14776,7 +14949,7 @@
       <c r="BB13" s="18"/>
       <c r="BC13" s="18"/>
     </row>
-    <row r="21" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:35" ht="13.5" customHeight="1">
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -14790,19 +14963,19 @@
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
     </row>
-    <row r="22" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:35" ht="13.5" customHeight="1">
       <c r="E22" s="1"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-    </row>
-    <row r="23" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X22" s="27"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+    </row>
+    <row r="23" spans="3:35" ht="13.5" customHeight="1">
       <c r="E23" s="16"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -14822,7 +14995,7 @@
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
     </row>
-    <row r="24" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:35" ht="13.5" customHeight="1">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="12"/>
@@ -14837,7 +15010,7 @@
       <c r="Y24" s="23"/>
       <c r="Z24" s="23"/>
     </row>
-    <row r="25" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:35" ht="13.5" customHeight="1">
       <c r="C25" s="7"/>
       <c r="D25" s="3"/>
       <c r="E25" s="12" t="s">
@@ -14870,65 +15043,65 @@
       <c r="AG25" s="21"/>
       <c r="AH25" s="21"/>
     </row>
-    <row r="26" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:35" ht="13.5" customHeight="1">
       <c r="C26" s="7"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
       <c r="V26" s="7"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="24"/>
-    </row>
-    <row r="27" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+    </row>
+    <row r="27" spans="3:35" ht="13.5" customHeight="1">
       <c r="C27" s="7"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
       <c r="V27" s="7"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="24"/>
-    </row>
-    <row r="28" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+    </row>
+    <row r="28" spans="3:35" ht="13.5" customHeight="1">
       <c r="C28" s="4"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -14952,7 +15125,7 @@
       <c r="AE28" s="17"/>
       <c r="AF28" s="17"/>
     </row>
-    <row r="29" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:35" ht="13.5" customHeight="1">
       <c r="C29" s="4"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -14983,7 +15156,7 @@
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
     </row>
-    <row r="30" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:35" ht="13.5" customHeight="1">
       <c r="C30" s="4"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -15014,7 +15187,7 @@
       <c r="AH30" s="23"/>
       <c r="AI30" s="23"/>
     </row>
-    <row r="33" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:34" ht="13.5" customHeight="1">
       <c r="E33" s="1"/>
       <c r="F33" s="22"/>
       <c r="G33" s="23"/>
@@ -15026,7 +15199,7 @@
       <c r="AA33" s="23"/>
       <c r="AB33" s="23"/>
     </row>
-    <row r="34" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:34" ht="13.5" customHeight="1">
       <c r="C34" s="7"/>
       <c r="E34" s="16"/>
       <c r="F34" s="15"/>
@@ -15048,7 +15221,7 @@
       <c r="AE34" s="11"/>
       <c r="AF34" s="11"/>
     </row>
-    <row r="35" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:34" ht="13.5" customHeight="1">
       <c r="C35" s="7"/>
       <c r="E35" s="12"/>
       <c r="F35" s="23"/>
@@ -15060,83 +15233,83 @@
       <c r="Z35" s="23"/>
       <c r="AA35" s="23"/>
     </row>
-    <row r="36" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:34" ht="13.5" customHeight="1">
       <c r="C36" s="7"/>
       <c r="E36" s="12"/>
       <c r="V36" s="7"/>
       <c r="X36" s="12"/>
     </row>
-    <row r="37" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:34" ht="13.5" customHeight="1">
       <c r="C37" s="7"/>
       <c r="E37" s="12"/>
       <c r="V37" s="7"/>
       <c r="X37" s="12"/>
     </row>
-    <row r="38" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:34" ht="13.5" customHeight="1">
       <c r="C38" s="7"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
       <c r="V38" s="7"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="25"/>
-      <c r="AG38" s="25"/>
-      <c r="AH38" s="25"/>
-    </row>
-    <row r="39" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
-      <c r="AD39" s="25"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="25"/>
-      <c r="AG39" s="25"/>
-      <c r="AH39" s="25"/>
-    </row>
-    <row r="42" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+    </row>
+    <row r="39" spans="3:34" ht="13.5" customHeight="1">
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+    </row>
+    <row r="42" spans="3:34" ht="13.5" customHeight="1">
       <c r="C42" s="10"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
       <c r="V42" s="10"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-    </row>
-    <row r="43" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X42" s="27"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+    </row>
+    <row r="43" spans="3:34" ht="13.5" customHeight="1">
       <c r="C43" s="10"/>
       <c r="E43" s="16"/>
       <c r="F43" s="15"/>
@@ -15158,7 +15331,7 @@
       <c r="AD43" s="11"/>
       <c r="AE43" s="11"/>
     </row>
-    <row r="44" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:34" ht="13.5" customHeight="1">
       <c r="C44" s="10"/>
       <c r="E44" s="12"/>
       <c r="F44" s="23"/>
@@ -15170,7 +15343,7 @@
       <c r="Y44" s="23"/>
       <c r="Z44" s="23"/>
     </row>
-    <row r="45" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:34" ht="13.5" customHeight="1">
       <c r="E45" s="12" t="s">
         <v>1</v>
       </c>
@@ -15198,59 +15371,59 @@
       <c r="AG45" s="21"/>
       <c r="AH45" s="21"/>
     </row>
-    <row r="46" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="24"/>
-      <c r="AA46" s="24"/>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="24"/>
-      <c r="AD46" s="24"/>
-      <c r="AE46" s="24"/>
-      <c r="AF46" s="24"/>
-      <c r="AG46" s="24"/>
-      <c r="AH46" s="24"/>
-    </row>
-    <row r="47" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-      <c r="AA47" s="24"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
-      <c r="AD47" s="24"/>
-      <c r="AE47" s="24"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="24"/>
-      <c r="AH47" s="24"/>
-    </row>
-    <row r="49" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:34" ht="13.5" customHeight="1">
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="25"/>
+      <c r="AF46" s="25"/>
+      <c r="AG46" s="25"/>
+      <c r="AH46" s="25"/>
+    </row>
+    <row r="47" spans="3:34" ht="13.5" customHeight="1">
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="25"/>
+      <c r="AH47" s="25"/>
+    </row>
+    <row r="49" spans="3:35" ht="13.5" customHeight="1">
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
@@ -15280,7 +15453,7 @@
       <c r="AH49" s="15"/>
       <c r="AI49" s="15"/>
     </row>
-    <row r="50" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:35" ht="13.5" customHeight="1">
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
@@ -15310,7 +15483,7 @@
       <c r="AH50" s="23"/>
       <c r="AI50" s="23"/>
     </row>
-    <row r="55" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:35" ht="13.5" customHeight="1">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="6"/>
@@ -15334,7 +15507,7 @@
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
     </row>
-    <row r="56" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:35" ht="13.5" customHeight="1">
       <c r="C56" s="7"/>
       <c r="D56" s="3"/>
       <c r="E56" s="6"/>
@@ -15358,7 +15531,7 @@
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
     </row>
-    <row r="57" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:35" ht="13.5" customHeight="1">
       <c r="C57" s="7"/>
       <c r="D57" s="3"/>
       <c r="E57" s="6"/>
@@ -15382,7 +15555,7 @@
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
     </row>
-    <row r="58" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:35" ht="13.5" customHeight="1">
       <c r="C58" s="7"/>
       <c r="D58" s="3"/>
       <c r="E58" s="6"/>
@@ -15406,7 +15579,7 @@
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
     </row>
-    <row r="59" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:35" ht="13.5" customHeight="1">
       <c r="C59" s="4"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -15430,7 +15603,7 @@
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
     </row>
-    <row r="60" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:35" ht="13.5" customHeight="1">
       <c r="C60" s="4"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -15468,13 +15641,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BD60"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.625" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="2.875" style="2" customWidth="1" collapsed="1"/>
@@ -15497,7 +15670,7 @@
     <col min="57" max="16384" width="2.875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:55" ht="13.5" customHeight="1">
       <c r="AL1" s="19"/>
       <c r="AM1" s="19"/>
       <c r="AN1" s="19"/>
@@ -15517,21 +15690,21 @@
       <c r="BB1" s="18"/>
       <c r="BC1" s="18"/>
     </row>
-    <row r="2" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:55" ht="13.5" customHeight="1">
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="W2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
       <c r="AB2" s="23"/>
       <c r="AL2" s="19"/>
       <c r="AM2" s="19"/>
@@ -15552,7 +15725,7 @@
       <c r="BB2" s="18"/>
       <c r="BC2" s="18"/>
     </row>
-    <row r="3" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:55" ht="13.5" customHeight="1">
       <c r="C3" s="7"/>
       <c r="E3" s="16"/>
       <c r="F3" s="15"/>
@@ -15592,7 +15765,7 @@
       <c r="BB3" s="18"/>
       <c r="BC3" s="18"/>
     </row>
-    <row r="4" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:55" ht="13.5" customHeight="1">
       <c r="C4" s="7"/>
       <c r="E4" s="12" t="s">
         <v>1</v>
@@ -15624,7 +15797,7 @@
       <c r="BB4" s="18"/>
       <c r="BC4" s="18"/>
     </row>
-    <row r="5" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:55" ht="13.5" customHeight="1">
       <c r="C5" s="7"/>
       <c r="E5" s="12" t="s">
         <v>1</v>
@@ -15674,33 +15847,33 @@
       <c r="BB5" s="18"/>
       <c r="BC5" s="18"/>
     </row>
-    <row r="6" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:55" ht="13.5" customHeight="1">
       <c r="C6" s="7"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
       <c r="AL6" s="19"/>
       <c r="AM6" s="19"/>
       <c r="AN6" s="19"/>
@@ -15720,33 +15893,33 @@
       <c r="BB6" s="18"/>
       <c r="BC6" s="18"/>
     </row>
-    <row r="7" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:55" ht="13.5" customHeight="1">
       <c r="C7" s="7"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
       <c r="AL7" s="19"/>
       <c r="AM7" s="19"/>
       <c r="AN7" s="19"/>
@@ -15766,7 +15939,7 @@
       <c r="BB7" s="18"/>
       <c r="BC7" s="18"/>
     </row>
-    <row r="8" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:55" ht="13.5" customHeight="1">
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
@@ -15808,7 +15981,7 @@
       <c r="BB8" s="18"/>
       <c r="BC8" s="18"/>
     </row>
-    <row r="9" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:55" ht="13.5" customHeight="1">
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -15856,7 +16029,7 @@
       <c r="BB9" s="18"/>
       <c r="BC9" s="18"/>
     </row>
-    <row r="10" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:55" ht="13.5" customHeight="1">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -15910,7 +16083,7 @@
       <c r="BB10" s="18"/>
       <c r="BC10" s="18"/>
     </row>
-    <row r="11" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:55" ht="13.5" customHeight="1">
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -15963,7 +16136,7 @@
       <c r="BB11" s="18"/>
       <c r="BC11" s="18"/>
     </row>
-    <row r="12" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:55" ht="13.5" customHeight="1">
       <c r="AL12" s="18"/>
       <c r="AM12" s="18"/>
       <c r="AN12" s="18"/>
@@ -15983,7 +16156,7 @@
       <c r="BB12" s="18"/>
       <c r="BC12" s="18"/>
     </row>
-    <row r="13" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:55" ht="13.5" customHeight="1">
       <c r="AL13" s="18"/>
       <c r="AM13" s="18"/>
       <c r="AN13" s="18"/>
@@ -16003,7 +16176,7 @@
       <c r="BB13" s="18"/>
       <c r="BC13" s="18"/>
     </row>
-    <row r="21" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:35" ht="13.5" customHeight="1">
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -16017,19 +16190,19 @@
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
     </row>
-    <row r="22" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:35" ht="13.5" customHeight="1">
       <c r="E22" s="1"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-    </row>
-    <row r="23" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X22" s="27"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+    </row>
+    <row r="23" spans="3:35" ht="13.5" customHeight="1">
       <c r="E23" s="16"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -16049,7 +16222,7 @@
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
     </row>
-    <row r="24" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:35" ht="13.5" customHeight="1">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="12"/>
@@ -16064,7 +16237,7 @@
       <c r="Y24" s="23"/>
       <c r="Z24" s="23"/>
     </row>
-    <row r="25" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:35" ht="13.5" customHeight="1">
       <c r="C25" s="7"/>
       <c r="D25" s="3"/>
       <c r="E25" s="12" t="s">
@@ -16097,65 +16270,65 @@
       <c r="AG25" s="21"/>
       <c r="AH25" s="21"/>
     </row>
-    <row r="26" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:35" ht="13.5" customHeight="1">
       <c r="C26" s="7"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
       <c r="V26" s="7"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="24"/>
-    </row>
-    <row r="27" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+    </row>
+    <row r="27" spans="3:35" ht="13.5" customHeight="1">
       <c r="C27" s="7"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
       <c r="V27" s="7"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="24"/>
-    </row>
-    <row r="28" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+    </row>
+    <row r="28" spans="3:35" ht="13.5" customHeight="1">
       <c r="C28" s="4"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -16179,7 +16352,7 @@
       <c r="AE28" s="17"/>
       <c r="AF28" s="17"/>
     </row>
-    <row r="29" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:35" ht="13.5" customHeight="1">
       <c r="C29" s="4"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -16210,7 +16383,7 @@
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
     </row>
-    <row r="30" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:35" ht="13.5" customHeight="1">
       <c r="C30" s="4"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -16241,7 +16414,7 @@
       <c r="AH30" s="23"/>
       <c r="AI30" s="23"/>
     </row>
-    <row r="33" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:34" ht="13.5" customHeight="1">
       <c r="E33" s="1"/>
       <c r="F33" s="22"/>
       <c r="G33" s="23"/>
@@ -16253,7 +16426,7 @@
       <c r="AA33" s="23"/>
       <c r="AB33" s="23"/>
     </row>
-    <row r="34" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:34" ht="13.5" customHeight="1">
       <c r="C34" s="7"/>
       <c r="E34" s="16"/>
       <c r="F34" s="15"/>
@@ -16275,7 +16448,7 @@
       <c r="AE34" s="11"/>
       <c r="AF34" s="11"/>
     </row>
-    <row r="35" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:34" ht="13.5" customHeight="1">
       <c r="C35" s="7"/>
       <c r="E35" s="12"/>
       <c r="F35" s="23"/>
@@ -16287,83 +16460,83 @@
       <c r="Z35" s="23"/>
       <c r="AA35" s="23"/>
     </row>
-    <row r="36" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:34" ht="13.5" customHeight="1">
       <c r="C36" s="7"/>
       <c r="E36" s="12"/>
       <c r="V36" s="7"/>
       <c r="X36" s="12"/>
     </row>
-    <row r="37" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:34" ht="13.5" customHeight="1">
       <c r="C37" s="7"/>
       <c r="E37" s="12"/>
       <c r="V37" s="7"/>
       <c r="X37" s="12"/>
     </row>
-    <row r="38" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:34" ht="13.5" customHeight="1">
       <c r="C38" s="7"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
       <c r="V38" s="7"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="25"/>
-      <c r="AG38" s="25"/>
-      <c r="AH38" s="25"/>
-    </row>
-    <row r="39" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
-      <c r="AD39" s="25"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="25"/>
-      <c r="AG39" s="25"/>
-      <c r="AH39" s="25"/>
-    </row>
-    <row r="42" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+    </row>
+    <row r="39" spans="3:34" ht="13.5" customHeight="1">
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+    </row>
+    <row r="42" spans="3:34" ht="13.5" customHeight="1">
       <c r="C42" s="10"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
       <c r="V42" s="10"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-    </row>
-    <row r="43" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X42" s="27"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+    </row>
+    <row r="43" spans="3:34" ht="13.5" customHeight="1">
       <c r="C43" s="10"/>
       <c r="E43" s="16"/>
       <c r="F43" s="15"/>
@@ -16385,7 +16558,7 @@
       <c r="AD43" s="11"/>
       <c r="AE43" s="11"/>
     </row>
-    <row r="44" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:34" ht="13.5" customHeight="1">
       <c r="C44" s="10"/>
       <c r="E44" s="12"/>
       <c r="F44" s="23"/>
@@ -16397,7 +16570,7 @@
       <c r="Y44" s="23"/>
       <c r="Z44" s="23"/>
     </row>
-    <row r="45" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:34" ht="13.5" customHeight="1">
       <c r="E45" s="12" t="s">
         <v>1</v>
       </c>
@@ -16425,59 +16598,59 @@
       <c r="AG45" s="21"/>
       <c r="AH45" s="21"/>
     </row>
-    <row r="46" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="24"/>
-      <c r="AA46" s="24"/>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="24"/>
-      <c r="AD46" s="24"/>
-      <c r="AE46" s="24"/>
-      <c r="AF46" s="24"/>
-      <c r="AG46" s="24"/>
-      <c r="AH46" s="24"/>
-    </row>
-    <row r="47" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-      <c r="AA47" s="24"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
-      <c r="AD47" s="24"/>
-      <c r="AE47" s="24"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="24"/>
-      <c r="AH47" s="24"/>
-    </row>
-    <row r="49" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:34" ht="13.5" customHeight="1">
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="25"/>
+      <c r="AF46" s="25"/>
+      <c r="AG46" s="25"/>
+      <c r="AH46" s="25"/>
+    </row>
+    <row r="47" spans="3:34" ht="13.5" customHeight="1">
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="25"/>
+      <c r="AH47" s="25"/>
+    </row>
+    <row r="49" spans="3:35" ht="13.5" customHeight="1">
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
@@ -16507,7 +16680,7 @@
       <c r="AH49" s="15"/>
       <c r="AI49" s="15"/>
     </row>
-    <row r="50" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:35" ht="13.5" customHeight="1">
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
@@ -16537,7 +16710,7 @@
       <c r="AH50" s="23"/>
       <c r="AI50" s="23"/>
     </row>
-    <row r="55" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:35" ht="13.5" customHeight="1">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="6"/>
@@ -16561,7 +16734,7 @@
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
     </row>
-    <row r="56" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:35" ht="13.5" customHeight="1">
       <c r="C56" s="7"/>
       <c r="D56" s="3"/>
       <c r="E56" s="6"/>
@@ -16585,7 +16758,7 @@
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
     </row>
-    <row r="57" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:35" ht="13.5" customHeight="1">
       <c r="C57" s="7"/>
       <c r="D57" s="3"/>
       <c r="E57" s="6"/>
@@ -16609,7 +16782,7 @@
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
     </row>
-    <row r="58" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:35" ht="13.5" customHeight="1">
       <c r="C58" s="7"/>
       <c r="D58" s="3"/>
       <c r="E58" s="6"/>
@@ -16633,7 +16806,7 @@
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
     </row>
-    <row r="59" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:35" ht="13.5" customHeight="1">
       <c r="C59" s="4"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -16657,7 +16830,7 @@
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
     </row>
-    <row r="60" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:35" ht="13.5" customHeight="1">
       <c r="C60" s="4"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -16695,13 +16868,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BD60"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.625" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="2.875" style="2" customWidth="1" collapsed="1"/>
@@ -16724,7 +16897,7 @@
     <col min="57" max="16384" width="2.875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:55" ht="13.5" customHeight="1">
       <c r="AL1" s="19"/>
       <c r="AM1" s="19"/>
       <c r="AN1" s="19"/>
@@ -16744,21 +16917,21 @@
       <c r="BB1" s="18"/>
       <c r="BC1" s="18"/>
     </row>
-    <row r="2" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:55" ht="13.5" customHeight="1">
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="W2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
       <c r="AB2" s="23"/>
       <c r="AL2" s="19"/>
       <c r="AM2" s="19"/>
@@ -16779,7 +16952,7 @@
       <c r="BB2" s="18"/>
       <c r="BC2" s="18"/>
     </row>
-    <row r="3" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:55" ht="13.5" customHeight="1">
       <c r="C3" s="7"/>
       <c r="E3" s="16"/>
       <c r="F3" s="15"/>
@@ -16819,7 +16992,7 @@
       <c r="BB3" s="18"/>
       <c r="BC3" s="18"/>
     </row>
-    <row r="4" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:55" ht="13.5" customHeight="1">
       <c r="C4" s="7"/>
       <c r="E4" s="12" t="s">
         <v>1</v>
@@ -16851,7 +17024,7 @@
       <c r="BB4" s="18"/>
       <c r="BC4" s="18"/>
     </row>
-    <row r="5" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:55" ht="13.5" customHeight="1">
       <c r="C5" s="7"/>
       <c r="E5" s="12" t="s">
         <v>1</v>
@@ -16901,33 +17074,33 @@
       <c r="BB5" s="18"/>
       <c r="BC5" s="18"/>
     </row>
-    <row r="6" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:55" ht="13.5" customHeight="1">
       <c r="C6" s="7"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
       <c r="AL6" s="19"/>
       <c r="AM6" s="19"/>
       <c r="AN6" s="19"/>
@@ -16947,33 +17120,33 @@
       <c r="BB6" s="18"/>
       <c r="BC6" s="18"/>
     </row>
-    <row r="7" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:55" ht="13.5" customHeight="1">
       <c r="C7" s="7"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
       <c r="AL7" s="19"/>
       <c r="AM7" s="19"/>
       <c r="AN7" s="19"/>
@@ -16993,7 +17166,7 @@
       <c r="BB7" s="18"/>
       <c r="BC7" s="18"/>
     </row>
-    <row r="8" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:55" ht="13.5" customHeight="1">
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
@@ -17035,7 +17208,7 @@
       <c r="BB8" s="18"/>
       <c r="BC8" s="18"/>
     </row>
-    <row r="9" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:55" ht="13.5" customHeight="1">
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -17083,7 +17256,7 @@
       <c r="BB9" s="18"/>
       <c r="BC9" s="18"/>
     </row>
-    <row r="10" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:55" ht="13.5" customHeight="1">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -17137,7 +17310,7 @@
       <c r="BB10" s="18"/>
       <c r="BC10" s="18"/>
     </row>
-    <row r="11" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:55" ht="13.5" customHeight="1">
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -17190,7 +17363,7 @@
       <c r="BB11" s="18"/>
       <c r="BC11" s="18"/>
     </row>
-    <row r="12" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:55" ht="13.5" customHeight="1">
       <c r="AL12" s="18"/>
       <c r="AM12" s="18"/>
       <c r="AN12" s="18"/>
@@ -17210,7 +17383,7 @@
       <c r="BB12" s="18"/>
       <c r="BC12" s="18"/>
     </row>
-    <row r="13" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:55" ht="13.5" customHeight="1">
       <c r="AL13" s="18"/>
       <c r="AM13" s="18"/>
       <c r="AN13" s="18"/>
@@ -17230,7 +17403,7 @@
       <c r="BB13" s="18"/>
       <c r="BC13" s="18"/>
     </row>
-    <row r="21" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:35" ht="13.5" customHeight="1">
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -17244,21 +17417,21 @@
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
     </row>
-    <row r="22" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:35" ht="13.5" customHeight="1">
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-    </row>
-    <row r="23" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X22" s="27"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+    </row>
+    <row r="23" spans="3:35" ht="13.5" customHeight="1">
       <c r="E23" s="16"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -17278,7 +17451,7 @@
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
     </row>
-    <row r="24" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:35" ht="13.5" customHeight="1">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="12"/>
@@ -17293,7 +17466,7 @@
       <c r="Y24" s="23"/>
       <c r="Z24" s="23"/>
     </row>
-    <row r="25" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:35" ht="13.5" customHeight="1">
       <c r="C25" s="7"/>
       <c r="D25" s="3"/>
       <c r="E25" s="12" t="s">
@@ -17326,65 +17499,65 @@
       <c r="AG25" s="21"/>
       <c r="AH25" s="21"/>
     </row>
-    <row r="26" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:35" ht="13.5" customHeight="1">
       <c r="C26" s="7"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
       <c r="V26" s="7"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="24"/>
-    </row>
-    <row r="27" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+    </row>
+    <row r="27" spans="3:35" ht="13.5" customHeight="1">
       <c r="C27" s="7"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
       <c r="V27" s="7"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="24"/>
-    </row>
-    <row r="28" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+    </row>
+    <row r="28" spans="3:35" ht="13.5" customHeight="1">
       <c r="C28" s="4"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -17408,7 +17581,7 @@
       <c r="AE28" s="17"/>
       <c r="AF28" s="17"/>
     </row>
-    <row r="29" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:35" ht="13.5" customHeight="1">
       <c r="C29" s="4"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -17439,7 +17612,7 @@
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
     </row>
-    <row r="30" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:35" ht="13.5" customHeight="1">
       <c r="C30" s="4"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -17470,7 +17643,7 @@
       <c r="AH30" s="23"/>
       <c r="AI30" s="23"/>
     </row>
-    <row r="33" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:34" ht="13.5" customHeight="1">
       <c r="E33" s="1"/>
       <c r="F33" s="22"/>
       <c r="G33" s="23"/>
@@ -17482,7 +17655,7 @@
       <c r="AA33" s="23"/>
       <c r="AB33" s="23"/>
     </row>
-    <row r="34" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:34" ht="13.5" customHeight="1">
       <c r="C34" s="7"/>
       <c r="E34" s="16"/>
       <c r="F34" s="15"/>
@@ -17504,7 +17677,7 @@
       <c r="AE34" s="11"/>
       <c r="AF34" s="11"/>
     </row>
-    <row r="35" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:34" ht="13.5" customHeight="1">
       <c r="C35" s="7"/>
       <c r="E35" s="12"/>
       <c r="F35" s="23"/>
@@ -17516,83 +17689,83 @@
       <c r="Z35" s="23"/>
       <c r="AA35" s="23"/>
     </row>
-    <row r="36" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:34" ht="13.5" customHeight="1">
       <c r="C36" s="7"/>
       <c r="E36" s="12"/>
       <c r="V36" s="7"/>
       <c r="X36" s="12"/>
     </row>
-    <row r="37" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:34" ht="13.5" customHeight="1">
       <c r="C37" s="7"/>
       <c r="E37" s="12"/>
       <c r="V37" s="7"/>
       <c r="X37" s="12"/>
     </row>
-    <row r="38" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:34" ht="13.5" customHeight="1">
       <c r="C38" s="7"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
       <c r="V38" s="7"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="25"/>
-      <c r="AG38" s="25"/>
-      <c r="AH38" s="25"/>
-    </row>
-    <row r="39" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
-      <c r="AD39" s="25"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="25"/>
-      <c r="AG39" s="25"/>
-      <c r="AH39" s="25"/>
-    </row>
-    <row r="42" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+    </row>
+    <row r="39" spans="3:34" ht="13.5" customHeight="1">
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+    </row>
+    <row r="42" spans="3:34" ht="13.5" customHeight="1">
       <c r="C42" s="10"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
       <c r="V42" s="10"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-    </row>
-    <row r="43" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X42" s="27"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+    </row>
+    <row r="43" spans="3:34" ht="13.5" customHeight="1">
       <c r="C43" s="10"/>
       <c r="E43" s="16"/>
       <c r="F43" s="15"/>
@@ -17614,7 +17787,7 @@
       <c r="AD43" s="11"/>
       <c r="AE43" s="11"/>
     </row>
-    <row r="44" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:34" ht="13.5" customHeight="1">
       <c r="C44" s="10"/>
       <c r="E44" s="12"/>
       <c r="F44" s="23"/>
@@ -17626,7 +17799,7 @@
       <c r="Y44" s="23"/>
       <c r="Z44" s="23"/>
     </row>
-    <row r="45" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:34" ht="13.5" customHeight="1">
       <c r="E45" s="12" t="s">
         <v>1</v>
       </c>
@@ -17654,59 +17827,59 @@
       <c r="AG45" s="21"/>
       <c r="AH45" s="21"/>
     </row>
-    <row r="46" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="24"/>
-      <c r="AA46" s="24"/>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="24"/>
-      <c r="AD46" s="24"/>
-      <c r="AE46" s="24"/>
-      <c r="AF46" s="24"/>
-      <c r="AG46" s="24"/>
-      <c r="AH46" s="24"/>
-    </row>
-    <row r="47" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-      <c r="AA47" s="24"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
-      <c r="AD47" s="24"/>
-      <c r="AE47" s="24"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="24"/>
-      <c r="AH47" s="24"/>
-    </row>
-    <row r="49" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:34" ht="13.5" customHeight="1">
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="25"/>
+      <c r="AF46" s="25"/>
+      <c r="AG46" s="25"/>
+      <c r="AH46" s="25"/>
+    </row>
+    <row r="47" spans="3:34" ht="13.5" customHeight="1">
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="25"/>
+      <c r="AH47" s="25"/>
+    </row>
+    <row r="49" spans="3:35" ht="13.5" customHeight="1">
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
@@ -17736,7 +17909,7 @@
       <c r="AH49" s="15"/>
       <c r="AI49" s="15"/>
     </row>
-    <row r="50" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:35" ht="13.5" customHeight="1">
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
@@ -17766,7 +17939,7 @@
       <c r="AH50" s="23"/>
       <c r="AI50" s="23"/>
     </row>
-    <row r="55" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:35" ht="13.5" customHeight="1">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="6"/>
@@ -17790,7 +17963,7 @@
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
     </row>
-    <row r="56" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:35" ht="13.5" customHeight="1">
       <c r="C56" s="7"/>
       <c r="D56" s="3"/>
       <c r="E56" s="6"/>
@@ -17814,7 +17987,7 @@
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
     </row>
-    <row r="57" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:35" ht="13.5" customHeight="1">
       <c r="C57" s="7"/>
       <c r="D57" s="3"/>
       <c r="E57" s="6"/>
@@ -17838,7 +18011,7 @@
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
     </row>
-    <row r="58" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:35" ht="13.5" customHeight="1">
       <c r="C58" s="7"/>
       <c r="D58" s="3"/>
       <c r="E58" s="6"/>
@@ -17862,7 +18035,7 @@
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
     </row>
-    <row r="59" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:35" ht="13.5" customHeight="1">
       <c r="C59" s="4"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -17886,7 +18059,7 @@
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
     </row>
-    <row r="60" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:35" ht="13.5" customHeight="1">
       <c r="C60" s="4"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -17924,13 +18097,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BD60"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.625" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="2.875" style="2" customWidth="1" collapsed="1"/>
@@ -17953,7 +18126,7 @@
     <col min="57" max="16384" width="2.875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:55" ht="13.5" customHeight="1">
       <c r="AL1" s="19"/>
       <c r="AM1" s="19"/>
       <c r="AN1" s="19"/>
@@ -17973,21 +18146,21 @@
       <c r="BB1" s="18"/>
       <c r="BC1" s="18"/>
     </row>
-    <row r="2" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:55" ht="13.5" customHeight="1">
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="W2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
       <c r="AB2" s="23"/>
       <c r="AL2" s="19"/>
       <c r="AM2" s="19"/>
@@ -18008,7 +18181,7 @@
       <c r="BB2" s="18"/>
       <c r="BC2" s="18"/>
     </row>
-    <row r="3" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:55" ht="13.5" customHeight="1">
       <c r="C3" s="7"/>
       <c r="E3" s="16"/>
       <c r="F3" s="15"/>
@@ -18048,7 +18221,7 @@
       <c r="BB3" s="18"/>
       <c r="BC3" s="18"/>
     </row>
-    <row r="4" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:55" ht="13.5" customHeight="1">
       <c r="C4" s="7"/>
       <c r="E4" s="12" t="s">
         <v>1</v>
@@ -18080,7 +18253,7 @@
       <c r="BB4" s="18"/>
       <c r="BC4" s="18"/>
     </row>
-    <row r="5" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:55" ht="13.5" customHeight="1">
       <c r="C5" s="7"/>
       <c r="E5" s="12" t="s">
         <v>1</v>
@@ -18130,33 +18303,33 @@
       <c r="BB5" s="18"/>
       <c r="BC5" s="18"/>
     </row>
-    <row r="6" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:55" ht="13.5" customHeight="1">
       <c r="C6" s="7"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
       <c r="AL6" s="19"/>
       <c r="AM6" s="19"/>
       <c r="AN6" s="19"/>
@@ -18176,33 +18349,33 @@
       <c r="BB6" s="18"/>
       <c r="BC6" s="18"/>
     </row>
-    <row r="7" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:55" ht="13.5" customHeight="1">
       <c r="C7" s="7"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
       <c r="AL7" s="19"/>
       <c r="AM7" s="19"/>
       <c r="AN7" s="19"/>
@@ -18222,7 +18395,7 @@
       <c r="BB7" s="18"/>
       <c r="BC7" s="18"/>
     </row>
-    <row r="8" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:55" ht="13.5" customHeight="1">
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
@@ -18264,7 +18437,7 @@
       <c r="BB8" s="18"/>
       <c r="BC8" s="18"/>
     </row>
-    <row r="9" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:55" ht="13.5" customHeight="1">
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -18312,7 +18485,7 @@
       <c r="BB9" s="18"/>
       <c r="BC9" s="18"/>
     </row>
-    <row r="10" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:55" ht="13.5" customHeight="1">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -18366,7 +18539,7 @@
       <c r="BB10" s="18"/>
       <c r="BC10" s="18"/>
     </row>
-    <row r="11" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:55" ht="13.5" customHeight="1">
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -18419,7 +18592,7 @@
       <c r="BB11" s="18"/>
       <c r="BC11" s="18"/>
     </row>
-    <row r="12" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:55" ht="13.5" customHeight="1">
       <c r="AL12" s="18"/>
       <c r="AM12" s="18"/>
       <c r="AN12" s="18"/>
@@ -18439,7 +18612,7 @@
       <c r="BB12" s="18"/>
       <c r="BC12" s="18"/>
     </row>
-    <row r="13" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:55" ht="13.5" customHeight="1">
       <c r="AL13" s="18"/>
       <c r="AM13" s="18"/>
       <c r="AN13" s="18"/>
@@ -18459,7 +18632,7 @@
       <c r="BB13" s="18"/>
       <c r="BC13" s="18"/>
     </row>
-    <row r="21" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:35" ht="13.5" customHeight="1">
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -18473,23 +18646,23 @@
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
     </row>
-    <row r="22" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:35" ht="13.5" customHeight="1">
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
       <c r="W22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-    </row>
-    <row r="23" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X22" s="27"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+    </row>
+    <row r="23" spans="3:35" ht="13.5" customHeight="1">
       <c r="E23" s="16"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -18509,7 +18682,7 @@
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
     </row>
-    <row r="24" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:35" ht="13.5" customHeight="1">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="12"/>
@@ -18524,7 +18697,7 @@
       <c r="Y24" s="23"/>
       <c r="Z24" s="23"/>
     </row>
-    <row r="25" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:35" ht="13.5" customHeight="1">
       <c r="C25" s="7"/>
       <c r="D25" s="3"/>
       <c r="E25" s="12" t="s">
@@ -18557,65 +18730,65 @@
       <c r="AG25" s="21"/>
       <c r="AH25" s="21"/>
     </row>
-    <row r="26" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:35" ht="13.5" customHeight="1">
       <c r="C26" s="7"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
       <c r="V26" s="7"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="24"/>
-    </row>
-    <row r="27" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+    </row>
+    <row r="27" spans="3:35" ht="13.5" customHeight="1">
       <c r="C27" s="7"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
       <c r="V27" s="7"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="24"/>
-    </row>
-    <row r="28" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+    </row>
+    <row r="28" spans="3:35" ht="13.5" customHeight="1">
       <c r="C28" s="4"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -18639,7 +18812,7 @@
       <c r="AE28" s="17"/>
       <c r="AF28" s="17"/>
     </row>
-    <row r="29" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:35" ht="13.5" customHeight="1">
       <c r="C29" s="4"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -18670,7 +18843,7 @@
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
     </row>
-    <row r="30" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:35" ht="13.5" customHeight="1">
       <c r="C30" s="4"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -18701,7 +18874,7 @@
       <c r="AH30" s="23"/>
       <c r="AI30" s="23"/>
     </row>
-    <row r="33" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:34" ht="13.5" customHeight="1">
       <c r="E33" s="1"/>
       <c r="F33" s="22"/>
       <c r="G33" s="23"/>
@@ -18713,7 +18886,7 @@
       <c r="AA33" s="23"/>
       <c r="AB33" s="23"/>
     </row>
-    <row r="34" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:34" ht="13.5" customHeight="1">
       <c r="C34" s="7"/>
       <c r="E34" s="16"/>
       <c r="F34" s="15"/>
@@ -18735,7 +18908,7 @@
       <c r="AE34" s="11"/>
       <c r="AF34" s="11"/>
     </row>
-    <row r="35" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:34" ht="13.5" customHeight="1">
       <c r="C35" s="7"/>
       <c r="E35" s="12"/>
       <c r="F35" s="23"/>
@@ -18747,83 +18920,83 @@
       <c r="Z35" s="23"/>
       <c r="AA35" s="23"/>
     </row>
-    <row r="36" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:34" ht="13.5" customHeight="1">
       <c r="C36" s="7"/>
       <c r="E36" s="12"/>
       <c r="V36" s="7"/>
       <c r="X36" s="12"/>
     </row>
-    <row r="37" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:34" ht="13.5" customHeight="1">
       <c r="C37" s="7"/>
       <c r="E37" s="12"/>
       <c r="V37" s="7"/>
       <c r="X37" s="12"/>
     </row>
-    <row r="38" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:34" ht="13.5" customHeight="1">
       <c r="C38" s="7"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
       <c r="V38" s="7"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="25"/>
-      <c r="AG38" s="25"/>
-      <c r="AH38" s="25"/>
-    </row>
-    <row r="39" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
-      <c r="AD39" s="25"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="25"/>
-      <c r="AG39" s="25"/>
-      <c r="AH39" s="25"/>
-    </row>
-    <row r="42" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+    </row>
+    <row r="39" spans="3:34" ht="13.5" customHeight="1">
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+    </row>
+    <row r="42" spans="3:34" ht="13.5" customHeight="1">
       <c r="C42" s="10"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
       <c r="V42" s="10"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-    </row>
-    <row r="43" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X42" s="27"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+    </row>
+    <row r="43" spans="3:34" ht="13.5" customHeight="1">
       <c r="C43" s="10"/>
       <c r="E43" s="16"/>
       <c r="F43" s="15"/>
@@ -18845,7 +19018,7 @@
       <c r="AD43" s="11"/>
       <c r="AE43" s="11"/>
     </row>
-    <row r="44" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:34" ht="13.5" customHeight="1">
       <c r="C44" s="10"/>
       <c r="E44" s="12"/>
       <c r="F44" s="23"/>
@@ -18857,7 +19030,7 @@
       <c r="Y44" s="23"/>
       <c r="Z44" s="23"/>
     </row>
-    <row r="45" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:34" ht="13.5" customHeight="1">
       <c r="E45" s="12" t="s">
         <v>1</v>
       </c>
@@ -18885,59 +19058,59 @@
       <c r="AG45" s="21"/>
       <c r="AH45" s="21"/>
     </row>
-    <row r="46" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="24"/>
-      <c r="AA46" s="24"/>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="24"/>
-      <c r="AD46" s="24"/>
-      <c r="AE46" s="24"/>
-      <c r="AF46" s="24"/>
-      <c r="AG46" s="24"/>
-      <c r="AH46" s="24"/>
-    </row>
-    <row r="47" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-      <c r="AA47" s="24"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
-      <c r="AD47" s="24"/>
-      <c r="AE47" s="24"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="24"/>
-      <c r="AH47" s="24"/>
-    </row>
-    <row r="49" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:34" ht="13.5" customHeight="1">
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="25"/>
+      <c r="AF46" s="25"/>
+      <c r="AG46" s="25"/>
+      <c r="AH46" s="25"/>
+    </row>
+    <row r="47" spans="3:34" ht="13.5" customHeight="1">
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="25"/>
+      <c r="AH47" s="25"/>
+    </row>
+    <row r="49" spans="3:35" ht="13.5" customHeight="1">
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
@@ -18967,7 +19140,7 @@
       <c r="AH49" s="15"/>
       <c r="AI49" s="15"/>
     </row>
-    <row r="50" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:35" ht="13.5" customHeight="1">
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
@@ -18997,7 +19170,7 @@
       <c r="AH50" s="23"/>
       <c r="AI50" s="23"/>
     </row>
-    <row r="55" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:35" ht="13.5" customHeight="1">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="6"/>
@@ -19021,7 +19194,7 @@
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
     </row>
-    <row r="56" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:35" ht="13.5" customHeight="1">
       <c r="C56" s="7"/>
       <c r="D56" s="3"/>
       <c r="E56" s="6"/>
@@ -19045,7 +19218,7 @@
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
     </row>
-    <row r="57" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:35" ht="13.5" customHeight="1">
       <c r="C57" s="7"/>
       <c r="D57" s="3"/>
       <c r="E57" s="6"/>
@@ -19069,7 +19242,7 @@
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
     </row>
-    <row r="58" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:35" ht="13.5" customHeight="1">
       <c r="C58" s="7"/>
       <c r="D58" s="3"/>
       <c r="E58" s="6"/>
@@ -19093,7 +19266,7 @@
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
     </row>
-    <row r="59" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:35" ht="13.5" customHeight="1">
       <c r="C59" s="4"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -19117,7 +19290,7 @@
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
     </row>
-    <row r="60" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:35" ht="13.5" customHeight="1">
       <c r="C60" s="4"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -19155,13 +19328,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BD60"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.625" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="2.875" style="2" customWidth="1" collapsed="1"/>
@@ -19184,7 +19357,7 @@
     <col min="57" max="16384" width="2.875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:55" ht="13.5" customHeight="1">
       <c r="AL1" s="19"/>
       <c r="AM1" s="19"/>
       <c r="AN1" s="19"/>
@@ -19204,21 +19377,21 @@
       <c r="BB1" s="18"/>
       <c r="BC1" s="18"/>
     </row>
-    <row r="2" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:55" ht="13.5" customHeight="1">
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="W2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
       <c r="AB2" s="23"/>
       <c r="AL2" s="19"/>
       <c r="AM2" s="19"/>
@@ -19239,7 +19412,7 @@
       <c r="BB2" s="18"/>
       <c r="BC2" s="18"/>
     </row>
-    <row r="3" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:55" ht="13.5" customHeight="1">
       <c r="C3" s="7"/>
       <c r="E3" s="16"/>
       <c r="F3" s="15"/>
@@ -19279,7 +19452,7 @@
       <c r="BB3" s="18"/>
       <c r="BC3" s="18"/>
     </row>
-    <row r="4" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:55" ht="13.5" customHeight="1">
       <c r="C4" s="7"/>
       <c r="E4" s="12" t="s">
         <v>1</v>
@@ -19311,7 +19484,7 @@
       <c r="BB4" s="18"/>
       <c r="BC4" s="18"/>
     </row>
-    <row r="5" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:55" ht="13.5" customHeight="1">
       <c r="C5" s="7"/>
       <c r="E5" s="12" t="s">
         <v>1</v>
@@ -19361,33 +19534,33 @@
       <c r="BB5" s="18"/>
       <c r="BC5" s="18"/>
     </row>
-    <row r="6" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:55" ht="13.5" customHeight="1">
       <c r="C6" s="7"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
       <c r="AL6" s="19"/>
       <c r="AM6" s="19"/>
       <c r="AN6" s="19"/>
@@ -19407,33 +19580,33 @@
       <c r="BB6" s="18"/>
       <c r="BC6" s="18"/>
     </row>
-    <row r="7" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:55" ht="13.5" customHeight="1">
       <c r="C7" s="7"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
       <c r="AL7" s="19"/>
       <c r="AM7" s="19"/>
       <c r="AN7" s="19"/>
@@ -19453,7 +19626,7 @@
       <c r="BB7" s="18"/>
       <c r="BC7" s="18"/>
     </row>
-    <row r="8" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:55" ht="13.5" customHeight="1">
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
@@ -19495,7 +19668,7 @@
       <c r="BB8" s="18"/>
       <c r="BC8" s="18"/>
     </row>
-    <row r="9" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:55" ht="13.5" customHeight="1">
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -19543,7 +19716,7 @@
       <c r="BB9" s="18"/>
       <c r="BC9" s="18"/>
     </row>
-    <row r="10" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:55" ht="13.5" customHeight="1">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -19597,7 +19770,7 @@
       <c r="BB10" s="18"/>
       <c r="BC10" s="18"/>
     </row>
-    <row r="11" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:55" ht="13.5" customHeight="1">
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -19650,7 +19823,7 @@
       <c r="BB11" s="18"/>
       <c r="BC11" s="18"/>
     </row>
-    <row r="12" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:55" ht="13.5" customHeight="1">
       <c r="AL12" s="18"/>
       <c r="AM12" s="18"/>
       <c r="AN12" s="18"/>
@@ -19670,7 +19843,7 @@
       <c r="BB12" s="18"/>
       <c r="BC12" s="18"/>
     </row>
-    <row r="13" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:55" ht="13.5" customHeight="1">
       <c r="AL13" s="18"/>
       <c r="AM13" s="18"/>
       <c r="AN13" s="18"/>
@@ -19690,7 +19863,7 @@
       <c r="BB13" s="18"/>
       <c r="BC13" s="18"/>
     </row>
-    <row r="21" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:35" ht="13.5" customHeight="1">
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -19704,23 +19877,23 @@
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
     </row>
-    <row r="22" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:35" ht="13.5" customHeight="1">
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
       <c r="W22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-    </row>
-    <row r="23" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X22" s="27"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+    </row>
+    <row r="23" spans="3:35" ht="13.5" customHeight="1">
       <c r="E23" s="16"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -19740,7 +19913,7 @@
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
     </row>
-    <row r="24" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:35" ht="13.5" customHeight="1">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="12"/>
@@ -19755,7 +19928,7 @@
       <c r="Y24" s="23"/>
       <c r="Z24" s="23"/>
     </row>
-    <row r="25" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:35" ht="13.5" customHeight="1">
       <c r="C25" s="7"/>
       <c r="D25" s="3"/>
       <c r="E25" s="12" t="s">
@@ -19788,65 +19961,65 @@
       <c r="AG25" s="21"/>
       <c r="AH25" s="21"/>
     </row>
-    <row r="26" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:35" ht="13.5" customHeight="1">
       <c r="C26" s="7"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
       <c r="V26" s="7"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="24"/>
-    </row>
-    <row r="27" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+    </row>
+    <row r="27" spans="3:35" ht="13.5" customHeight="1">
       <c r="C27" s="7"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
       <c r="V27" s="7"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="24"/>
-    </row>
-    <row r="28" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+    </row>
+    <row r="28" spans="3:35" ht="13.5" customHeight="1">
       <c r="C28" s="4"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -19870,7 +20043,7 @@
       <c r="AE28" s="17"/>
       <c r="AF28" s="17"/>
     </row>
-    <row r="29" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:35" ht="13.5" customHeight="1">
       <c r="C29" s="4"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -19901,7 +20074,7 @@
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
     </row>
-    <row r="30" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:35" ht="13.5" customHeight="1">
       <c r="C30" s="4"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -19932,7 +20105,7 @@
       <c r="AH30" s="23"/>
       <c r="AI30" s="23"/>
     </row>
-    <row r="33" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:34" ht="13.5" customHeight="1">
       <c r="E33" s="1"/>
       <c r="F33" s="22"/>
       <c r="G33" s="23"/>
@@ -19944,7 +20117,7 @@
       <c r="AA33" s="23"/>
       <c r="AB33" s="23"/>
     </row>
-    <row r="34" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:34" ht="13.5" customHeight="1">
       <c r="C34" s="7"/>
       <c r="E34" s="16"/>
       <c r="F34" s="15"/>
@@ -19966,7 +20139,7 @@
       <c r="AE34" s="11"/>
       <c r="AF34" s="11"/>
     </row>
-    <row r="35" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:34" ht="13.5" customHeight="1">
       <c r="C35" s="7"/>
       <c r="E35" s="12"/>
       <c r="F35" s="23"/>
@@ -19978,85 +20151,85 @@
       <c r="Z35" s="23"/>
       <c r="AA35" s="23"/>
     </row>
-    <row r="36" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:34" ht="13.5" customHeight="1">
       <c r="C36" s="7"/>
       <c r="E36" s="12"/>
       <c r="V36" s="7"/>
       <c r="X36" s="12"/>
     </row>
-    <row r="37" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:34" ht="13.5" customHeight="1">
       <c r="C37" s="7"/>
       <c r="E37" s="12"/>
       <c r="V37" s="7"/>
       <c r="X37" s="12"/>
     </row>
-    <row r="38" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:34" ht="13.5" customHeight="1">
       <c r="C38" s="7"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
       <c r="V38" s="7"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="25"/>
-      <c r="AG38" s="25"/>
-      <c r="AH38" s="25"/>
-    </row>
-    <row r="39" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
-      <c r="AD39" s="25"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="25"/>
-      <c r="AG39" s="25"/>
-      <c r="AH39" s="25"/>
-    </row>
-    <row r="42" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+    </row>
+    <row r="39" spans="3:34" ht="13.5" customHeight="1">
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+    </row>
+    <row r="42" spans="3:34" ht="13.5" customHeight="1">
       <c r="C42" s="10"/>
       <c r="E42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
       <c r="V42" s="10"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-    </row>
-    <row r="43" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X42" s="27"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+    </row>
+    <row r="43" spans="3:34" ht="13.5" customHeight="1">
       <c r="C43" s="10"/>
       <c r="E43" s="16"/>
       <c r="F43" s="15"/>
@@ -20078,7 +20251,7 @@
       <c r="AD43" s="11"/>
       <c r="AE43" s="11"/>
     </row>
-    <row r="44" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:34" ht="13.5" customHeight="1">
       <c r="C44" s="10"/>
       <c r="E44" s="12"/>
       <c r="F44" s="23"/>
@@ -20090,7 +20263,7 @@
       <c r="Y44" s="23"/>
       <c r="Z44" s="23"/>
     </row>
-    <row r="45" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:34" ht="13.5" customHeight="1">
       <c r="E45" s="12" t="s">
         <v>1</v>
       </c>
@@ -20118,59 +20291,59 @@
       <c r="AG45" s="21"/>
       <c r="AH45" s="21"/>
     </row>
-    <row r="46" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="24"/>
-      <c r="AA46" s="24"/>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="24"/>
-      <c r="AD46" s="24"/>
-      <c r="AE46" s="24"/>
-      <c r="AF46" s="24"/>
-      <c r="AG46" s="24"/>
-      <c r="AH46" s="24"/>
-    </row>
-    <row r="47" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-      <c r="AA47" s="24"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
-      <c r="AD47" s="24"/>
-      <c r="AE47" s="24"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="24"/>
-      <c r="AH47" s="24"/>
-    </row>
-    <row r="49" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:34" ht="13.5" customHeight="1">
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="25"/>
+      <c r="AF46" s="25"/>
+      <c r="AG46" s="25"/>
+      <c r="AH46" s="25"/>
+    </row>
+    <row r="47" spans="3:34" ht="13.5" customHeight="1">
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="25"/>
+      <c r="AH47" s="25"/>
+    </row>
+    <row r="49" spans="3:35" ht="13.5" customHeight="1">
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
@@ -20200,7 +20373,7 @@
       <c r="AH49" s="15"/>
       <c r="AI49" s="15"/>
     </row>
-    <row r="50" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:35" ht="13.5" customHeight="1">
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
@@ -20230,7 +20403,7 @@
       <c r="AH50" s="23"/>
       <c r="AI50" s="23"/>
     </row>
-    <row r="55" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:35" ht="13.5" customHeight="1">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="6"/>
@@ -20254,7 +20427,7 @@
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
     </row>
-    <row r="56" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:35" ht="13.5" customHeight="1">
       <c r="C56" s="7"/>
       <c r="D56" s="3"/>
       <c r="E56" s="6"/>
@@ -20278,7 +20451,7 @@
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
     </row>
-    <row r="57" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:35" ht="13.5" customHeight="1">
       <c r="C57" s="7"/>
       <c r="D57" s="3"/>
       <c r="E57" s="6"/>
@@ -20302,7 +20475,7 @@
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
     </row>
-    <row r="58" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:35" ht="13.5" customHeight="1">
       <c r="C58" s="7"/>
       <c r="D58" s="3"/>
       <c r="E58" s="6"/>
@@ -20326,7 +20499,7 @@
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
     </row>
-    <row r="59" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:35" ht="13.5" customHeight="1">
       <c r="C59" s="4"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -20350,7 +20523,7 @@
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
     </row>
-    <row r="60" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:35" ht="13.5" customHeight="1">
       <c r="C60" s="4"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -20388,13 +20561,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BD60"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.625" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="2.875" style="2" customWidth="1" collapsed="1"/>
@@ -20417,7 +20590,7 @@
     <col min="57" max="16384" width="2.875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:55" ht="13.5" customHeight="1">
       <c r="AL1" s="19"/>
       <c r="AM1" s="19"/>
       <c r="AN1" s="19"/>
@@ -20437,21 +20610,21 @@
       <c r="BB1" s="18"/>
       <c r="BC1" s="18"/>
     </row>
-    <row r="2" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:55" ht="13.5" customHeight="1">
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="W2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
       <c r="AB2" s="23"/>
       <c r="AL2" s="19"/>
       <c r="AM2" s="19"/>
@@ -20472,7 +20645,7 @@
       <c r="BB2" s="18"/>
       <c r="BC2" s="18"/>
     </row>
-    <row r="3" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:55" ht="13.5" customHeight="1">
       <c r="C3" s="7"/>
       <c r="E3" s="16"/>
       <c r="F3" s="15"/>
@@ -20512,7 +20685,7 @@
       <c r="BB3" s="18"/>
       <c r="BC3" s="18"/>
     </row>
-    <row r="4" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:55" ht="13.5" customHeight="1">
       <c r="C4" s="7"/>
       <c r="E4" s="12"/>
       <c r="F4" s="23"/>
@@ -20542,7 +20715,7 @@
       <c r="BB4" s="18"/>
       <c r="BC4" s="18"/>
     </row>
-    <row r="5" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:55" ht="13.5" customHeight="1">
       <c r="C5" s="7"/>
       <c r="E5" s="12" t="s">
         <v>1</v>
@@ -20592,33 +20765,33 @@
       <c r="BB5" s="18"/>
       <c r="BC5" s="18"/>
     </row>
-    <row r="6" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:55" ht="13.5" customHeight="1">
       <c r="C6" s="7"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
       <c r="AL6" s="19"/>
       <c r="AM6" s="19"/>
       <c r="AN6" s="19"/>
@@ -20638,33 +20811,33 @@
       <c r="BB6" s="18"/>
       <c r="BC6" s="18"/>
     </row>
-    <row r="7" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:55" ht="13.5" customHeight="1">
       <c r="C7" s="7"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
       <c r="AL7" s="19"/>
       <c r="AM7" s="19"/>
       <c r="AN7" s="19"/>
@@ -20684,7 +20857,7 @@
       <c r="BB7" s="18"/>
       <c r="BC7" s="18"/>
     </row>
-    <row r="8" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:55" ht="13.5" customHeight="1">
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
@@ -20726,7 +20899,7 @@
       <c r="BB8" s="18"/>
       <c r="BC8" s="18"/>
     </row>
-    <row r="9" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:55" ht="13.5" customHeight="1">
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -20774,7 +20947,7 @@
       <c r="BB9" s="18"/>
       <c r="BC9" s="18"/>
     </row>
-    <row r="10" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:55" ht="13.5" customHeight="1">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -20828,7 +21001,7 @@
       <c r="BB10" s="18"/>
       <c r="BC10" s="18"/>
     </row>
-    <row r="11" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:55" ht="13.5" customHeight="1">
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -20881,7 +21054,7 @@
       <c r="BB11" s="18"/>
       <c r="BC11" s="18"/>
     </row>
-    <row r="12" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:55" ht="13.5" customHeight="1">
       <c r="AL12" s="18"/>
       <c r="AM12" s="18"/>
       <c r="AN12" s="18"/>
@@ -20901,7 +21074,7 @@
       <c r="BB12" s="18"/>
       <c r="BC12" s="18"/>
     </row>
-    <row r="13" spans="2:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:55" ht="13.5" customHeight="1">
       <c r="AL13" s="18"/>
       <c r="AM13" s="18"/>
       <c r="AN13" s="18"/>
@@ -20921,7 +21094,7 @@
       <c r="BB13" s="18"/>
       <c r="BC13" s="18"/>
     </row>
-    <row r="21" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:35" ht="13.5" customHeight="1">
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -20935,23 +21108,23 @@
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
     </row>
-    <row r="22" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:35" ht="13.5" customHeight="1">
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
       <c r="W22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-    </row>
-    <row r="23" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X22" s="27"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+    </row>
+    <row r="23" spans="3:35" ht="13.5" customHeight="1">
       <c r="E23" s="16"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -20971,7 +21144,7 @@
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
     </row>
-    <row r="24" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:35" ht="13.5" customHeight="1">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="12"/>
@@ -20984,7 +21157,7 @@
       <c r="Y24" s="23"/>
       <c r="Z24" s="23"/>
     </row>
-    <row r="25" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:35" ht="13.5" customHeight="1">
       <c r="C25" s="7"/>
       <c r="D25" s="3"/>
       <c r="E25" s="12" t="s">
@@ -21017,65 +21190,65 @@
       <c r="AG25" s="21"/>
       <c r="AH25" s="21"/>
     </row>
-    <row r="26" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:35" ht="13.5" customHeight="1">
       <c r="C26" s="7"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
       <c r="V26" s="7"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="24"/>
-    </row>
-    <row r="27" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+    </row>
+    <row r="27" spans="3:35" ht="13.5" customHeight="1">
       <c r="C27" s="7"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
       <c r="V27" s="7"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="24"/>
-    </row>
-    <row r="28" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+    </row>
+    <row r="28" spans="3:35" ht="13.5" customHeight="1">
       <c r="C28" s="4"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -21099,7 +21272,7 @@
       <c r="AE28" s="17"/>
       <c r="AF28" s="17"/>
     </row>
-    <row r="29" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:35" ht="13.5" customHeight="1">
       <c r="C29" s="4"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -21130,7 +21303,7 @@
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
     </row>
-    <row r="30" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:35" ht="13.5" customHeight="1">
       <c r="C30" s="4"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -21161,7 +21334,7 @@
       <c r="AH30" s="23"/>
       <c r="AI30" s="23"/>
     </row>
-    <row r="33" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:34" ht="13.5" customHeight="1">
       <c r="E33" s="1"/>
       <c r="F33" s="22"/>
       <c r="G33" s="23"/>
@@ -21173,7 +21346,7 @@
       <c r="AA33" s="23"/>
       <c r="AB33" s="23"/>
     </row>
-    <row r="34" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:34" ht="13.5" customHeight="1">
       <c r="C34" s="7"/>
       <c r="E34" s="16"/>
       <c r="F34" s="15"/>
@@ -21195,7 +21368,7 @@
       <c r="AE34" s="11"/>
       <c r="AF34" s="11"/>
     </row>
-    <row r="35" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:34" ht="13.5" customHeight="1">
       <c r="C35" s="7"/>
       <c r="E35" s="12"/>
       <c r="F35" s="23"/>
@@ -21207,87 +21380,87 @@
       <c r="Z35" s="23"/>
       <c r="AA35" s="23"/>
     </row>
-    <row r="36" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:34" ht="13.5" customHeight="1">
       <c r="C36" s="7"/>
       <c r="E36" s="12"/>
       <c r="V36" s="7"/>
       <c r="X36" s="12"/>
     </row>
-    <row r="37" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:34" ht="13.5" customHeight="1">
       <c r="C37" s="7"/>
       <c r="E37" s="12"/>
       <c r="V37" s="7"/>
       <c r="X37" s="12"/>
     </row>
-    <row r="38" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:34" ht="13.5" customHeight="1">
       <c r="C38" s="7"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
       <c r="V38" s="7"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="25"/>
-      <c r="AG38" s="25"/>
-      <c r="AH38" s="25"/>
-    </row>
-    <row r="39" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
-      <c r="AD39" s="25"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="25"/>
-      <c r="AG39" s="25"/>
-      <c r="AH39" s="25"/>
-    </row>
-    <row r="42" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+    </row>
+    <row r="39" spans="3:34" ht="13.5" customHeight="1">
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+    </row>
+    <row r="42" spans="3:34" ht="13.5" customHeight="1">
       <c r="C42" s="10"/>
       <c r="E42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
       <c r="V42" s="10"/>
       <c r="W42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-    </row>
-    <row r="43" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X42" s="27"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+    </row>
+    <row r="43" spans="3:34" ht="13.5" customHeight="1">
       <c r="C43" s="10"/>
       <c r="E43" s="16"/>
       <c r="F43" s="15"/>
@@ -21309,7 +21482,7 @@
       <c r="AD43" s="11"/>
       <c r="AE43" s="11"/>
     </row>
-    <row r="44" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:34" ht="13.5" customHeight="1">
       <c r="C44" s="10"/>
       <c r="E44" s="12"/>
       <c r="F44" s="23"/>
@@ -21323,7 +21496,7 @@
       <c r="Y44" s="23"/>
       <c r="Z44" s="23"/>
     </row>
-    <row r="45" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:34" ht="13.5" customHeight="1">
       <c r="E45" s="12" t="s">
         <v>1</v>
       </c>
@@ -21353,59 +21526,59 @@
       <c r="AG45" s="21"/>
       <c r="AH45" s="21"/>
     </row>
-    <row r="46" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="24"/>
-      <c r="AA46" s="24"/>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="24"/>
-      <c r="AD46" s="24"/>
-      <c r="AE46" s="24"/>
-      <c r="AF46" s="24"/>
-      <c r="AG46" s="24"/>
-      <c r="AH46" s="24"/>
-    </row>
-    <row r="47" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-      <c r="AA47" s="24"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
-      <c r="AD47" s="24"/>
-      <c r="AE47" s="24"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="24"/>
-      <c r="AH47" s="24"/>
-    </row>
-    <row r="49" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:34" ht="13.5" customHeight="1">
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="25"/>
+      <c r="AF46" s="25"/>
+      <c r="AG46" s="25"/>
+      <c r="AH46" s="25"/>
+    </row>
+    <row r="47" spans="3:34" ht="13.5" customHeight="1">
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="25"/>
+      <c r="AH47" s="25"/>
+    </row>
+    <row r="49" spans="3:35" ht="13.5" customHeight="1">
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
@@ -21435,7 +21608,7 @@
       <c r="AH49" s="15"/>
       <c r="AI49" s="15"/>
     </row>
-    <row r="50" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:35" ht="13.5" customHeight="1">
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
@@ -21465,7 +21638,7 @@
       <c r="AH50" s="23"/>
       <c r="AI50" s="23"/>
     </row>
-    <row r="55" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:35" ht="13.5" customHeight="1">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="6"/>
@@ -21489,7 +21662,7 @@
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
     </row>
-    <row r="56" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:35" ht="13.5" customHeight="1">
       <c r="C56" s="7"/>
       <c r="D56" s="3"/>
       <c r="E56" s="6"/>
@@ -21513,7 +21686,7 @@
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
     </row>
-    <row r="57" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:35" ht="13.5" customHeight="1">
       <c r="C57" s="7"/>
       <c r="D57" s="3"/>
       <c r="E57" s="6"/>
@@ -21537,7 +21710,7 @@
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
     </row>
-    <row r="58" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:35" ht="13.5" customHeight="1">
       <c r="C58" s="7"/>
       <c r="D58" s="3"/>
       <c r="E58" s="6"/>
@@ -21561,7 +21734,7 @@
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
     </row>
-    <row r="59" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:35" ht="13.5" customHeight="1">
       <c r="C59" s="4"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -21585,7 +21758,7 @@
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
     </row>
-    <row r="60" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:35" ht="13.5" customHeight="1">
       <c r="C60" s="4"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
